--- a/LISTADO_PEDIDO_COMPRAS/OLD/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/OLD/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS.xlsx
@@ -1877,17 +1877,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3101010005</t>
+          <t>3101010006</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>SACO SUSTRATO UNIVERSAL EMUFLOR</t>
+          <t>SUSTRATO PREMIUM</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>20L</t>
+          <t>40L</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -1909,37 +1909,37 @@
         <v>90</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>860.71</v>
+        <v>726.08</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>390.87</v>
+        <v>277.67</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>60.56</v>
+        <v>96.3</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>106.6</v>
+        <v>25.4</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>319.9</v>
+        <v>76.3</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>67.78</v>
+        <v>83.33</v>
       </c>
       <c r="S16" s="5" t="n">
         <v>10</v>
@@ -1951,34 +1951,34 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/03/2025</t>
+          <t>Compra 17/03/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3101010006</t>
+          <t>3101010005</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO PREMIUM</t>
+          <t>SACO SUSTRATO UNIVERSAL EMUFLOR</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>40L</t>
+          <t>20L</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -2000,37 +2000,37 @@
         <v>90</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>726.08</v>
+        <v>860.71</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>293.27</v>
+        <v>390.87</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>96.3</v>
+        <v>60.56</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25.4</v>
+        <v>106.6</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>76.3</v>
+        <v>319.9</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>83.33</v>
+        <v>67.78</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>10</v>
@@ -2042,17 +2042,17 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 17/03/2025</t>
+          <t>Compra 31/03/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
         <v>503.98</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>215.76</v>
+        <v>208.46</v>
       </c>
       <c r="K25" s="4" t="n">
         <v>27.04</v>
@@ -3004,17 +3004,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>3101010006</t>
+          <t>3203050022</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO PREMIUM</t>
+          <t>SACO CANTO RODADO BLANCO ESPECIAL 20KG</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>25L</t>
+          <t>40I60</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -3024,88 +3024,88 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>467.41</v>
+        <v>479.36</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>193.22</v>
+        <v>203.53</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>22.4</v>
+        <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>21</v>
+        <v>31.3</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>63.1</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>149</v>
+        <v>-64</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T29" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T29" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -64 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 17/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>3203050022</t>
+          <t>3101010006</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO BLANCO ESPECIAL 20KG</t>
+          <t>SUSTRATO PREMIUM</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>40I60</t>
+          <t>25L</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -3115,71 +3115,71 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>479.36</v>
+        <v>467.41</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>203.53</v>
+        <v>203.97</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31.3</v>
+        <v>21</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>93.90000000000001</v>
+        <v>63.1</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>-64</v>
+        <v>149</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T30" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -64 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 17/03/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3360,60 +3360,52 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>3102050001</t>
+          <t>3203030001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO HUERTO URBANO</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>20L</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ARLITA BOLAS ARCILLA 6L</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>342</v>
+        <v>418.58</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>121.36</v>
+        <v>173.31</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>17.6</v>
+        <v>20.5</v>
       </c>
       <c r="N33" s="5" t="n">
-        <v>52.8</v>
+        <v>61.6</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>-36</v>
+        <v>-2</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>1</v>
@@ -3434,7 +3426,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -36 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -3451,17 +3443,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>3203050025</t>
+          <t>3102050001</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>SACO GRAVA VOLCANICA MARRON 15KG</t>
+          <t>COMPO BIO HUERTO URBANO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>10I25</t>
+          <t>20L</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -3471,43 +3463,43 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>465.03</v>
+        <v>342</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>223.5</v>
+        <v>121.36</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>130.3</v>
+        <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>42.1</v>
+        <v>17.6</v>
       </c>
       <c r="N34" s="5" t="n">
-        <v>126.2</v>
+        <v>52.8</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>-20</v>
+        <v>-36</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>0</v>
@@ -3525,7 +3517,7 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -20 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -36 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -3542,52 +3534,60 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>3102060001</t>
+          <t>3203050025</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>COMPO SANA HORTENSIAS-AZALEAS 20L</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr"/>
-      <c r="D35" s="3" t="inlineStr"/>
+          <t>SACO GRAVA VOLCANICA MARRON 15KG</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>10I25</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>370.5</v>
+        <v>465.03</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>148.64</v>
+        <v>223.5</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>0</v>
+        <v>130.3</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>19.1</v>
+        <v>42.1</v>
       </c>
       <c r="N35" s="5" t="n">
-        <v>57.2</v>
+        <v>126.2</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>-39</v>
+        <v>-20</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>2</v>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -39 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -20 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -3625,55 +3625,55 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>3203030001</t>
+          <t>3102060001</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>ARLITA BOLAS ARCILLA 6L</t>
+          <t>COMPO SANA HORTENSIAS-AZALEAS 20L</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>418.58</v>
+        <v>370.5</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>190.53</v>
+        <v>148.64</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>20.5</v>
+        <v>19.1</v>
       </c>
       <c r="N36" s="5" t="n">
-        <v>61.6</v>
+        <v>57.2</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>-2</v>
+        <v>-39</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>0</v>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -39 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -3708,16 +3708,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>3102040002</t>
+          <t>3102060005</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>SACO SUSTRATO GERANIOS, PLANTAS FLOR Y BALCON 45L</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr"/>
+          <t>SUSTRATO PLANTAS ACIDAS</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>40L</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
           <t>31</t>
@@ -3732,37 +3740,37 @@
         <v>90</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>330.26</v>
+        <v>429.14</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>121.61</v>
+        <v>198.57</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>38.54</v>
+        <v>39.81</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>18.1</v>
+        <v>21</v>
       </c>
       <c r="N37" s="5" t="n">
-        <v>54.3</v>
+        <v>63.1</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>67.78</v>
+        <v>83.33</v>
       </c>
       <c r="S37" s="5" t="n">
         <v>10</v>
@@ -3779,7 +3787,7 @@
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/03/2025</t>
+          <t>Compra 17/03/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -3791,24 +3799,16 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>3102060005</t>
+          <t>3102040002</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO PLANTAS ACIDAS</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>40L</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SACO SUSTRATO GERANIOS, PLANTAS FLOR Y BALCON 45L</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+      <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
           <t>31</t>
@@ -3823,37 +3823,37 @@
         <v>90</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>429.14</v>
+        <v>330.26</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>204.16</v>
+        <v>121.61</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>39.81</v>
+        <v>38.54</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>21</v>
+        <v>18.1</v>
       </c>
       <c r="N38" s="5" t="n">
-        <v>63.1</v>
+        <v>54.3</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>83.33</v>
+        <v>67.78</v>
       </c>
       <c r="S38" s="5" t="n">
         <v>10</v>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 17/03/2025</t>
+          <t>Compra 31/03/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -4990,12 +4990,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3102070002</t>
+          <t>3103040002</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO CANABIUM  50L</t>
+          <t>SUBSTRATO PLANTAS VERDES 10L</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -5014,28 +5014,28 @@
         <v>90</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>227.81</v>
+        <v>243.5</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>93.08</v>
+        <v>105.74</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>17.59</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9.300000000000001</v>
+        <v>24.5</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>27.9</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -5066,19 +5066,19 @@
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3103040002</t>
+          <t>3102070002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>SUBSTRATO PLANTAS VERDES 10L</t>
+          <t>SUSTRATO CANABIUM  50L</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -5097,28 +5097,28 @@
         <v>90</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>243.5</v>
+        <v>227.81</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>108.74</v>
+        <v>93.08</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>75.76000000000001</v>
+        <v>17.59</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>73.40000000000001</v>
+        <v>27.9</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>0</v>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6398,17 +6398,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>3203050031</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROSA 20KG</t>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>9I12</t>
+          <t>12I18</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -6430,37 +6430,37 @@
         <v>90</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>133.2</v>
+        <v>99.95</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>55.04</v>
+        <v>27.14</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11.7</v>
+        <v>0.5</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>35.2</v>
+        <v>1.5</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>0</v>
+        <v>55.56</v>
       </c>
       <c r="S29" s="5" t="n">
         <v>0</v>
@@ -6472,34 +6472,34 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -24 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 92 días.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>3203050027</t>
+          <t>3203050031</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA BLANCA 20KG</t>
+          <t>SACO MARMOLINA ROSA 20KG</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>12I18</t>
+          <t>9I12</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -6521,13 +6521,13 @@
         <v>90</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>130.21</v>
+        <v>133.2</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>53.38</v>
+        <v>55.04</v>
       </c>
       <c r="K30" s="4" t="n">
         <v>0</v>
@@ -6536,16 +6536,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>14.2</v>
+        <v>11.7</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>42.6</v>
+        <v>35.2</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>-29</v>
+        <v>-24</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0</v>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -29 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -24 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -6580,17 +6580,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>3201010001</t>
+          <t>3203050027</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>TURBA RUBIA</t>
+          <t>SACO MARMOLINA BLANCA 20KG</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>20L</t>
+          <t>12I18</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -6612,13 +6612,13 @@
         <v>90</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>128.83</v>
+        <v>130.21</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>53.24</v>
+        <v>53.38</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>0</v>
@@ -6627,16 +6627,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6.4</v>
+        <v>14.2</v>
       </c>
       <c r="N31" s="5" t="n">
-        <v>19.1</v>
+        <v>42.6</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>-13</v>
+        <v>-29</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -29 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -6671,17 +6671,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3201010001</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+          <t>TURBA RUBIA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>12I18</t>
+          <t>20L</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -6703,37 +6703,37 @@
         <v>90</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>99.95</v>
+        <v>128.83</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>32.6</v>
+        <v>53.24</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="N32" s="5" t="n">
-        <v>1.5</v>
+        <v>19.1</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>55.56</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>0</v>
@@ -6745,17 +6745,17 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 92 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -8309,17 +8309,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3203050031</t>
+          <t>3101010010</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROSA 20KG</t>
+          <t>COMPO BIO SUBSTRATO AQUA DEPOT</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10I15</t>
+          <t>20L</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -8329,49 +8329,49 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>83.86</v>
+        <v>59.94</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>44.53</v>
+        <v>24.76</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>20.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>-14</v>
+        <v>96</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>0</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>0</v>
@@ -8383,34 +8383,34 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -14 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 1472 días.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 23/05/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3101010010</t>
+          <t>3203050031</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO SUBSTRATO AQUA DEPOT</t>
+          <t>SACO MARMOLINA ROSA 20KG</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>20L</t>
+          <t>10I15</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -8420,49 +8420,49 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>59.94</v>
+        <v>83.86</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>24.76</v>
+        <v>44.53</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>8.800000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>96</v>
+        <v>-14</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>0</v>
@@ -8474,17 +8474,17 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 1472 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -14 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -9179,16 +9179,24 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>3102110005</t>
+          <t>3101010007</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>SACO TIERRA MANTILLO Y TURBA 50L</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr"/>
-      <c r="D27" s="3" t="inlineStr"/>
+          <t>SUSTRATO UNIVERSAL BLUMENERDE</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>5L</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
           <t>31</t>
@@ -9203,13 +9211,13 @@
         <v>90</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>35.22</v>
+        <v>92.69</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>11.53</v>
+        <v>58.93</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>0</v>
@@ -9218,16 +9226,16 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2.9</v>
+        <v>15.2</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>8.800000000000001</v>
+        <v>45.5</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>-6</v>
+        <v>-31</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>0</v>
@@ -9245,7 +9253,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -31 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -9262,24 +9270,16 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>3101010007</t>
+          <t>3102110005</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO UNIVERSAL BLUMENERDE</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>5L</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SACO TIERRA MANTILLO Y TURBA 50L</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+      <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
           <t>31</t>
@@ -9294,13 +9294,13 @@
         <v>90</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>92.69</v>
+        <v>35.22</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>59.55</v>
+        <v>11.53</v>
       </c>
       <c r="K28" s="4" t="n">
         <v>0</v>
@@ -9309,16 +9309,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15.2</v>
+        <v>2.9</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>45.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>-31</v>
+        <v>-6</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>0</v>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -31 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -10223,12 +10223,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>3102100002</t>
+          <t>3103040004</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO SEMILLERO 2,5L</t>
+          <t>SUSTRATO PLANTAS CARNIVORAS Y ACIDOFILAS 2.5L</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -10271,7 +10271,7 @@
         <v>-5</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>0</v>
@@ -10306,12 +10306,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>3103040004</t>
+          <t>3102100002</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO PLANTAS CARNIVORAS Y ACIDOFILAS 2.5L</t>
+          <t>SUSTRATO SEMILLERO 2,5L</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -10354,7 +10354,7 @@
         <v>-5</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>0</v>
@@ -10828,17 +10828,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>3101010008</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO UNIVERSAL ECOLOGICO SIN TURBA</t>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>10L</t>
+          <t>9I12</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -10848,25 +10848,25 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>6.58</v>
+        <v>5.99</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>2.96</v>
+        <v>2.48</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>0</v>
@@ -10875,16 +10875,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N46" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -10919,17 +10919,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3101010008</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
+          <t>SUSTRATO UNIVERSAL ECOLOGICO SIN TURBA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>9I12</t>
+          <t>10L</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -10939,43 +10939,43 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H47" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I47" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J47" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N47" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>0</v>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -11173,24 +11173,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3201020001</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MANTILLO 500L (NO VENTA)</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 500L (NO VENTA)</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -11256,24 +11256,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3101010010</t>
+          <t>3201020001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO SUBSTRATO AQUA DEPOT</t>
+          <t>BIG BAG MANTILLO 500L (NO VENTA)</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -11292,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -11301,19 +11301,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>102.22</v>
+        <v>13.33</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T3" s="9" t="inlineStr">
         <is>
@@ -11322,12 +11322,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 244.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -11339,17 +11339,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3203050002</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG CANTO RODADO BLANCO 500KG</t>
+          <t>BIG BAG JABRE</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>20I40</t>
+          <t>1M3</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -11359,12 +11359,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -11392,19 +11392,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>55.56</v>
+        <v>102.22</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T4" s="9" t="inlineStr">
         <is>
@@ -11413,12 +11413,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 458.74€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -11430,16 +11430,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 650L (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -11466,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -11475,19 +11483,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>102.22</v>
+        <v>13.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T5" s="9" t="inlineStr">
         <is>
@@ -11496,12 +11504,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -11518,7 +11526,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 500L (NO VENTA)</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 650L (NO VENTA)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -11549,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -11558,19 +11566,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T6" s="9" t="inlineStr">
         <is>
@@ -11579,12 +11587,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 144.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -11596,17 +11604,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050002</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
+          <t>BIG BAG CANTO RODADO BLANCO 500KG</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>1M3</t>
+          <t>20I40</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -11616,12 +11624,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -11640,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -11649,19 +11657,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>102.22</v>
+        <v>55.56</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T7" s="9" t="inlineStr">
         <is>
@@ -11670,12 +11678,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 458.74€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -11687,32 +11695,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3101010010</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COMPO BIO SUBSTRATO AQUA DEPOT</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -11731,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -11740,19 +11740,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T8" s="9" t="inlineStr">
         <is>
@@ -11761,12 +11761,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 244.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -11778,24 +11778,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 650L (NO VENTA)</t>
+          <t>BIG BAG RECEBO CESPED 650L (NO VENTA)</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -11823,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
@@ -11844,7 +11844,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 144.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
